--- a/TimesJobs_2023-07-22.xlsx
+++ b/TimesJobs_2023-07-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,6 +1725,1256 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fatehabad,  Gurgaon,  Hissar,  Jhajjar,  Jind</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-vicky-fatehabad-gurgaon-hissar-jhajjar-jind-2-to-7-yrs-jobid-7y5Zv0cprGRzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,Network Engineer</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wankaner,  Ambala,  Bhiwani,  Chandigarh,  Faridabad</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-wankaner-ambala-bhiwani-chandigarh-faridabad-2-to-7-yrs-jobid-9ZvDDRylaJJzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,System Administrator</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Surat,  Surendranagar,  Vadodara,  Valsad -Vapi,  Veraval</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-surat-surendranagar-vadodara-valsad-vapi-veraval-2-to-7-yrs-jobid-Oq5ruZz__SLASH__uhZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,System Administrator,Network Engineer</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Navsari,  Palanpur,  Patan,  Porbandar,  Rajkot</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-navsari-palanpur-patan-porbandar-rajkot-2-to-7-yrs-jobid-Zg85poENt91zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,System Administrator,Network Engineer</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kalol,  Kandla,  Mehsana,  Morbi,  Nadiad</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-kalol-kandla-mehsana-morbi-nadiad-2-to-7-yrs-jobid-CEwLROLbM7NzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,System Administrator,Network Engineer</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Godhra,  Gondal,  Jamnagar,  Jetpur,  Junagarh</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-godhra-gondal-jamnagar-jetpur-junagarh-2-to-7-yrs-jobid-nj2nR__PLUS__yxSuNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,Desktop Support Engineer</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Dahod,  Deesa,  Gandhidham,  Gandhinagar,  Gir</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-dahod-deesa-gandhidham-gandhinagar-gir-2-to-7-yrs-jobid-7uerZSFUjsdzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,Desktop Support Engineer</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ankleshwar,  Bharuch,  Bhavnagar,  Bhuj,  Botad</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-ankleshwar-bharuch-bhavnagar-bhuj-botad-2-to-7-yrs-jobid-ckQJT2ub7N1zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,System Administrator</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Panjim/Panaji,  Vasco Da Gama,  Ahmedabad,  Amreli,  Anand</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-panjim-panaji-vasco-da-gama-ahmedabad-amreli-anand-2-to-7-yrs-jobid-LDqKVrngD9dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,Network Engineer</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Muzaffarpur,  Patna,  Bhilai-Durg,  Bilaspur,  Raipur</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-muzaffarpur-patna-bhilai-durg-bilaspur-raipur-2-to-7-yrs-jobid-SEupZm__SLASH__SFtVzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,Network Engineer</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sibsagar,  Silchar,  Tezpur,  Tinsukia,  Bhagalpur</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-sibsagar-silchar-tezpur-tinsukia-bhagalpur-2-to-7-yrs-jobid-nv3__SLASH__CdAUl4VzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,Desktop Support Engineer</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bongaigaon,  Dhubri,  Dibrugarh,  Guwahati,  Jorhat</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-bongaigaon-dhubri-dibrugarh-guwahati-jorhat-2-to-7-yrs-jobid-qKP4SGjsP__PLUS__dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Maintenance Worker,System Administrator</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2 - 7 yrs</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tirupati,  Vijayawada,  Visakhapatnam,  Warangal,  Itanagar</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-tirupati-vijayawada-visakhapatnam-warangal-itanagar-2-to-7-yrs-jobid-iltuBo9zJ__PLUS__FzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Vicky
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      International Travel. sales voice process- travel  associate</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/international-travel-sales-voice-process-travel-associate-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-HYc154ic5tFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Hiring for Travel  Profiles Customer Service / Travel Sales</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/hiring-for-travel-profiles-customer-service-travel-sales-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-zt4HJEkqz__SLASH__lzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Hire for Travel Sales Consultant Google Campaign/PPC Calls</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/hire-for-travel-sales-consultant-google-campaign-ppc-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-PH__SLASH__F1__PLUS__TaOUZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      We are looking for. exp. candidates in travel sales profile.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/we-are-looking-for-exp-candidates-in-travel-sales-profile-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-Z__PLUS__ZS8yMXUZxzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      International Travel. sales voice process</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/international-travel-sales-voice-process-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-fEa3XqDo5I9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Experience Travel Sales Consultant</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/experience-travel-sales-consultant-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-nIa__SLASH__sFLWiTNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Travel Sales  Google Campaign Calls Meta Calls PPC Calls</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/travel-sales-google-campaign-calls-meta-calls-ppc-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-DFEUW6h5IERzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Tell-caller</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1 - 2 yrs</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bhopal</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/tell-caller-siddharth-institute-bhopal-1-to-2-yrs-jobid-cvFwyEhgCkFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TelemarketingSuggested KeySkills:Outbound calls, Customer Service, Convincing skills, MS Office , InternetDescription:Candidate will be responsible for handling outbound calls... </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    Siddharth institute
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Not Mentioned</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      US Travel Sales Consultant Google Campaign Meta Search Calls</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/us-travel-sales-consultant-google-campaign-meta-search-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-qRbRnzoZ96JzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Immediate joinee required for US Travel sales</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/immediate-joinee-required-for-us-travel-sales-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-c2TzSM68Jh5zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Bulk Hiring For US,UK travel Sales Consultsnt</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/bulk-hiring-for-us-uk-travel-sales-consultsnt-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-j4ffYI4LOR9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+      Immediate joinee required for US Travel sales - Meta,  calls</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1 - 6 yrs</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Posted today</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.timesjobs.com/job-detail/immediate-joinee-required-for-us-travel-sales-meta-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-iQcrOzxJdztzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    sharda consultancy Services
+     (More Jobs)  
+    </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TimesJobs_2023-07-22.xlsx
+++ b/TimesJobs_2023-07-22.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Experience Reqd</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Salary Range</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Date Posted</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Salary Range</t>
         </is>
       </c>
     </row>
@@ -482,46 +482,42 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker</t>
+      Business Development Manager</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more details contact @9510772601.Responsibility :Building a strong relationship with the sales team of channel partners.Meeting prospective customers with channel sales te...</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fatehabad,  Gurgaon,  Hissar,  Jhajjar,  Jind</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-vicky-fatehabad-gurgaon-hissar-jhajjar-jind-2-to-7-yrs-jobid-7y5Zv0cprGRzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Bhiwandi,  Kalyan,  Navi Mumbai,  Vasai,  Virar</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-manager-supro-consulting-bhiwandi-kalyan-navi-mumbai-vasai-virar-2-to-7-yrs-jobid-a8kzt3yZwBVzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -532,46 +528,42 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Network Engineer</t>
+      Business Development Manager</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more Details contact on @9510772601.Responsibilities:-   Lead will be provided Need to seat in bank handle walking customer  Generate business through the Lead Close the l...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wankaner,  Ambala,  Bhiwani,  Chandigarh,  Faridabad</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-wankaner-ambala-bhiwani-chandigarh-faridabad-2-to-7-yrs-jobid-9ZvDDRylaJJzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Mumbai,  Dombivali,  Kolhapur,  Latur,  Thane</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-manager-supro-consulting-mumbai-dombivali-kolhapur-latur-thane-2-to-7-yrs-jobid-SAJHHHVABHRzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -582,46 +574,42 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator</t>
+      Sales Development Manager</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more Details contact on @9510772601.Responsibilities:-   Lead will be provided Need to seat in bank handle walking customer  Generate business through the Lead Close the l...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Surat,  Surendranagar,  Vadodara,  Valsad -Vapi,  Veraval</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-surat-surendranagar-vadodara-valsad-vapi-veraval-2-to-7-yrs-jobid-Oq5ruZz__SLASH__uhZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ahmedabad,  Rajkot,  Surat,  Vadodara,  Valsad -Vapi</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/sales-development-manager-supro-consulting-ahmedabad-rajkot-surat-vadodara-valsad-vapi-2-to-7-yrs-jobid-9jTqgiuDPXFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -632,46 +620,42 @@
       <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator,Network Engineer</t>
+      Business Development Officer- On Roll</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>We are looking for below job profile candidates of Sales and Marketing.For more information Call on : 7984459585 or share your resume onWhatsApp. Recruit adviser Generate busi...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Navsari,  Palanpur,  Patan,  Porbandar,  Rajkot</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-navsari-palanpur-patan-porbandar-rajkot-2-to-7-yrs-jobid-Zg85poENt91zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Kanpur,  Lucknow,  Meerut,  Noida/Greater Noida,  Saharanpur</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.75 - 3.50 Lacs p.a.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-officer-on-roll-supro-consulting-kanpur-lucknow-meerut-noida-greater-noida-saharanpur-2-to-7-yrs-jobid-1FbGjMq4i__PLUS__5zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -682,46 +666,42 @@
       <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator,Network Engineer</t>
+      Branch Sales Manager</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more Details contact on @9510772601.Responsibilities:-   Lead will be provided Need to seat in bank handle walking customer  Generate business through the Lead Close the l...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kalol,  Kandla,  Mehsana,  Morbi,  Nadiad</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-kalol-kandla-mehsana-morbi-nadiad-2-to-7-yrs-jobid-CEwLROLbM7NzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Kolkata,  Mumbai</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/branch-sales-manager-supro-consulting-delhi-delhi-ncr-gurgaon-kolkata-mumbai-2-to-7-yrs-jobid-TFP__SLASH__Of5LzfxzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -732,46 +712,42 @@
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator,Network Engineer</t>
+      "Bancassurance Manager"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>Full time job. Work from tie up partnersResponsible to manage relations with Banca partners, especially with a bank employee. To close the leads provided by the Relationship M...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Godhra,  Gondal,  Jamnagar,  Jetpur,  Junagarh</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-godhra-gondal-jamnagar-jetpur-junagarh-2-to-7-yrs-jobid-nj2nR__PLUS__yxSuNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Jaipur,  Jodhpur,  Udaipur</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.50 Lacs p.a.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/bancassurance-manager-supro-consulting-jaipur-jodhpur-udaipur-2-to-7-yrs-jobid-CI4kEEnaxlBzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -782,46 +758,42 @@
       <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Desktop Support Engineer</t>
+      Area Sales Manager_Urgent Hiring</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>Send CV &amp; Call on 7984459585 (Devangi Patel)- Must be ready to earn incentives- Cold calling with a team member- Converting leads provided by company and assign branch- Ac...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dahod,  Deesa,  Gandhidham,  Gandhinagar,  Gir</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-dahod-deesa-gandhidham-gandhinagar-gir-2-to-7-yrs-jobid-7uerZSFUjsdzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ahmednagar,  Aurangabad,  Kolhapur,  Latur,  Mumbai</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.25 - 4.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-sales-manager-urgent-hiring-supro-consulting-ahmednagar-aurangabad-kolhapur-latur-mumbai-2-to-7-yrs-jobid-v2kTqxPwC3NzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -832,46 +804,42 @@
       <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Desktop Support Engineer</t>
+      Area Business manager</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more details contact @9510772601.Responsibility :Building a strong relationship with the sales team of channel partners.Meeting prospective customers with channel sales te...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ankleshwar,  Bharuch,  Bhavnagar,  Bhuj,  Botad</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-ankleshwar-bharuch-bhavnagar-bhuj-botad-2-to-7-yrs-jobid-ckQJT2ub7N1zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Bongaigaon,  Dibrugarh,  Guwahati,  Sibsagar,  Silchar</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 1.00 - 3.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-business-manager-supro-consulting-bongaigaon-dibrugarh-guwahati-sibsagar-silchar-2-to-7-yrs-jobid-QClYFume6o9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -882,46 +850,42 @@
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator</t>
+      Relationship Manager - On Roll</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more information call on 95373 31157 ( Krishna )Build and improve relationships with customers, key suppliers and partners.Review company practices to ensure clients get m...</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Panjim/Panaji,  Vasco Da Gama,  Ahmedabad,  Amreli,  Anand</t>
+          <t>2 - 6 yrs</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-panjim-panaji-vasco-da-gama-ahmedabad-amreli-anand-2-to-7-yrs-jobid-LDqKVrngD9dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Mumbai,  Pune,  Aurangabad,  Jalgaon,  Kolhapur</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 1.25 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/relationship-manager-on-roll-supro-consulting-mumbai-pune-aurangabad-jalgaon-kolhapur-2-to-6-yrs-jobid-ddgPidnPT6tzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -932,46 +896,42 @@
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Network Engineer</t>
+      Business Development Manager</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more details contact @9510772601.Responsibility :Building a strong relationship with the sales team of channel partners.Meeting prospective customers with channel sales te...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Muzaffarpur,  Patna,  Bhilai-Durg,  Bilaspur,  Raipur</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-muzaffarpur-patna-bhilai-durg-bilaspur-raipur-2-to-7-yrs-jobid-SEupZm__SLASH__SFtVzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Kolkata,  Mumbai</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-manager-supro-consulting-delhi-delhi-ncr-gurgaon-kolkata-mumbai-2-to-7-yrs-jobid-6DpbZvkit0pzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -982,46 +942,42 @@
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Network Engineer</t>
+      Area Sales Manager</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For More Information Call On : 9106082810Recruit adviserGenerate business through the advisersLead the team of advisers Motivate them to achieve targetsProvide training and gu...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sibsagar,  Silchar,  Tezpur,  Tinsukia,  Bhagalpur</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-sibsagar-silchar-tezpur-tinsukia-bhagalpur-2-to-7-yrs-jobid-nv3__SLASH__CdAUl4VzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ahmedabad,  Delhi/NCR,  Mumbai,  Kolhapur,  Jaipur</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.00 - 10.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-sales-manager-supro-consaltancy-ahmedabad-delhi-ncr-mumbai-kolhapur-jaipur-2-to-7-yrs-jobid-HBFyzWBaQqBzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1032,46 +988,42 @@
       <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Desktop Support Engineer</t>
+      Area Sales Manager_Immediate Opening</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>Send CV &amp; Call on 95373 31157 (Krishna)Call up the leads provided by company.Maintain customer relationship and customer servicing.On the desk &amp; field job, travel to a...</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bongaigaon,  Dhubri,  Dibrugarh,  Guwahati,  Jorhat</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-bongaigaon-dhubri-dibrugarh-guwahati-jorhat-2-to-7-yrs-jobid-qKP4SGjsP__PLUS__dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi/NCR,  Gurgaon,  Noida/Greater Noida,  Ghaziabad</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.25 - 3.50 Lacs p.a.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-sales-manager-immediate-opening-supro-consulting-delhi-ncr-gurgaon-noida-greater-noida-ghaziabad-2-to-7-yrs-jobid-Akh1Sjjc9t9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1082,46 +1034,42 @@
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator</t>
+      DIGITAL MARKETING EXECUTIVE (SEARCH ENGINE &amp; SOCIAL MEDIA)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>GREETINGS OF THE DAYfrom the association/side/end of RGRA HUMAN RESOURCE SOLUTIONS !!!!Dear Employee(s)/Candidate(s)/Job Seeker(s),                                            ...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tirupati,  Vijayawada,  Visakhapatnam,  Warangal,  Itanagar</t>
+          <t>1 - 6 yrs</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>RGRA HUMAN RESOURCE SOLUTIONS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-tirupati-vijayawada-visakhapatnam-warangal-itanagar-2-to-7-yrs-jobid-iltuBo9zJ__PLUS__FzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/digital-marketing-executive-search-engine-social-media-rgra-human-resource-solutions-delhi-1-to-6-yrs-jobid-QVF53aw__PLUS__v59zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1132,46 +1080,42 @@
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      International Travel. sales voice process- travel  associate</t>
+      Maintenance Worker</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/international-travel-sales-voice-process-travel-associate-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-HYc154ic5tFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Fatehabad,  Gurgaon,  Hissar,  Jhajjar,  Jind</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-vicky-fatehabad-gurgaon-hissar-jhajjar-jind-2-to-7-yrs-jobid-7y5Zv0cprGRzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1182,46 +1126,42 @@
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Hiring for Travel  Profiles Customer Service / Travel Sales</t>
+      Maintenance Worker,Network Engineer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/hiring-for-travel-profiles-customer-service-travel-sales-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-zt4HJEkqz__SLASH__lzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Wankaner,  Ambala,  Bhiwani,  Chandigarh,  Faridabad</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-wankaner-ambala-bhiwani-chandigarh-faridabad-2-to-7-yrs-jobid-9ZvDDRylaJJzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1232,46 +1172,42 @@
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Hire for Travel Sales Consultant Google Campaign/PPC Calls</t>
+      Maintenance Worker,System Administrator</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/hire-for-travel-sales-consultant-google-campaign-ppc-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-PH__SLASH__F1__PLUS__TaOUZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Surat,  Surendranagar,  Vadodara,  Valsad -Vapi,  Veraval</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-surat-surendranagar-vadodara-valsad-vapi-veraval-2-to-7-yrs-jobid-Oq5ruZz__SLASH__uhZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1282,46 +1218,42 @@
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      We are looking for. exp. candidates in travel sales profile.</t>
+      Maintenance Worker,System Administrator,Network Engineer</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/we-are-looking-for-exp-candidates-in-travel-sales-profile-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-Z__PLUS__ZS8yMXUZxzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Navsari,  Palanpur,  Patan,  Porbandar,  Rajkot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-navsari-palanpur-patan-porbandar-rajkot-2-to-7-yrs-jobid-Zg85poENt91zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1332,46 +1264,42 @@
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      International Travel. sales voice process</t>
+      Maintenance Worker,System Administrator,Network Engineer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/international-travel-sales-voice-process-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-fEa3XqDo5I9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Kalol,  Kandla,  Mehsana,  Morbi,  Nadiad</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-kalol-kandla-mehsana-morbi-nadiad-2-to-7-yrs-jobid-CEwLROLbM7NzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1382,46 +1310,42 @@
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Experience Travel Sales Consultant</t>
+      Maintenance Worker,System Administrator,Network Engineer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/experience-travel-sales-consultant-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-nIa__SLASH__sFLWiTNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Godhra,  Gondal,  Jamnagar,  Jetpur,  Junagarh</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-godhra-gondal-jamnagar-jetpur-junagarh-2-to-7-yrs-jobid-nj2nR__PLUS__yxSuNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1432,46 +1356,42 @@
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Travel Sales  Google Campaign Calls Meta Calls PPC Calls</t>
+      Maintenance Worker,Desktop Support Engineer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/travel-sales-google-campaign-calls-meta-calls-ppc-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-DFEUW6h5IERzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Dahod,  Deesa,  Gandhidham,  Gandhinagar,  Gir</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-dahod-deesa-gandhidham-gandhinagar-gir-2-to-7-yrs-jobid-7uerZSFUjsdzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1482,46 +1402,42 @@
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Tell-caller</t>
+      Maintenance Worker,Desktop Support Engineer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1 - 2 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bhopal</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/tell-caller-siddharth-institute-bhopal-1-to-2-yrs-jobid-cvFwyEhgCkFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ankleshwar,  Bharuch,  Bhavnagar,  Bhuj,  Botad</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-TelemarketingSuggested KeySkills:Outbound calls, Customer Service, Convincing skills, MS Office , InternetDescription:Candidate will be responsible for handling outbound calls... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Siddharth institute
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-ankleshwar-bharuch-bhavnagar-bhuj-botad-2-to-7-yrs-jobid-ckQJT2ub7N1zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1532,46 +1448,42 @@
       <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      US Travel Sales Consultant Google Campaign Meta Search Calls</t>
+      Maintenance Worker,System Administrator</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/us-travel-sales-consultant-google-campaign-meta-search-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-qRbRnzoZ96JzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Panjim/Panaji,  Vasco Da Gama,  Ahmedabad,  Amreli,  Anand</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-panjim-panaji-vasco-da-gama-ahmedabad-amreli-anand-2-to-7-yrs-jobid-LDqKVrngD9dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1582,46 +1494,42 @@
       <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Immediate joinee required for US Travel sales</t>
+      Maintenance Worker,Network Engineer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/immediate-joinee-required-for-us-travel-sales-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-c2TzSM68Jh5zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Muzaffarpur,  Patna,  Bhilai-Durg,  Bilaspur,  Raipur</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-muzaffarpur-patna-bhilai-durg-bilaspur-raipur-2-to-7-yrs-jobid-SEupZm__SLASH__SFtVzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1632,46 +1540,42 @@
       <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Bulk Hiring For US,UK travel Sales Consultsnt</t>
+      Maintenance Worker,Network Engineer</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/bulk-hiring-for-us-uk-travel-sales-consultsnt-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-j4ffYI4LOR9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Sibsagar,  Silchar,  Tezpur,  Tinsukia,  Bhagalpur</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-sibsagar-silchar-tezpur-tinsukia-bhagalpur-2-to-7-yrs-jobid-nv3__SLASH__CdAUl4VzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1682,46 +1586,42 @@
       <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Immediate joinee required for US Travel sales - Meta,  calls</t>
+      Maintenance Worker,Desktop Support Engineer</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/immediate-joinee-required-for-us-travel-sales-meta-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-iQcrOzxJdztzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Bongaigaon,  Dhubri,  Dibrugarh,  Guwahati,  Jorhat</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-bongaigaon-dhubri-dibrugarh-guwahati-jorhat-2-to-7-yrs-jobid-qKP4SGjsP__PLUS__dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1732,46 +1632,42 @@
       <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker</t>
+      Business Development Manager</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more details contact @9510772601.Responsibility :Building a strong relationship with the sales team of channel partners.Meeting prospective customers with channel sales te...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fatehabad,  Gurgaon,  Hissar,  Jhajjar,  Jind</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-vicky-fatehabad-gurgaon-hissar-jhajjar-jind-2-to-7-yrs-jobid-7y5Zv0cprGRzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Bhiwandi,  Kalyan,  Navi Mumbai,  Vasai,  Virar</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-manager-supro-consulting-bhiwandi-kalyan-navi-mumbai-vasai-virar-2-to-7-yrs-jobid-a8kzt3yZwBVzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1782,46 +1678,42 @@
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Network Engineer</t>
+      Business Development Manager</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more Details contact on @9510772601.Responsibilities:-   Lead will be provided Need to seat in bank handle walking customer  Generate business through the Lead Close the l...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wankaner,  Ambala,  Bhiwani,  Chandigarh,  Faridabad</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-wankaner-ambala-bhiwani-chandigarh-faridabad-2-to-7-yrs-jobid-9ZvDDRylaJJzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Mumbai,  Dombivali,  Kolhapur,  Latur,  Thane</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-manager-supro-consulting-mumbai-dombivali-kolhapur-latur-thane-2-to-7-yrs-jobid-SAJHHHVABHRzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1832,46 +1724,42 @@
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator</t>
+      Sales Development Manager</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more Details contact on @9510772601.Responsibilities:-   Lead will be provided Need to seat in bank handle walking customer  Generate business through the Lead Close the l...</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Surat,  Surendranagar,  Vadodara,  Valsad -Vapi,  Veraval</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-surat-surendranagar-vadodara-valsad-vapi-veraval-2-to-7-yrs-jobid-Oq5ruZz__SLASH__uhZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ahmedabad,  Rajkot,  Surat,  Vadodara,  Valsad -Vapi</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/sales-development-manager-supro-consulting-ahmedabad-rajkot-surat-vadodara-valsad-vapi-2-to-7-yrs-jobid-9jTqgiuDPXFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1882,46 +1770,42 @@
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator,Network Engineer</t>
+      Business Development Officer- On Roll</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>We are looking for below job profile candidates of Sales and Marketing.For more information Call on : 7984459585 or share your resume onWhatsApp. Recruit adviser Generate busi...</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Navsari,  Palanpur,  Patan,  Porbandar,  Rajkot</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-navsari-palanpur-patan-porbandar-rajkot-2-to-7-yrs-jobid-Zg85poENt91zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Kanpur,  Lucknow,  Meerut,  Noida/Greater Noida,  Saharanpur</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.75 - 3.50 Lacs p.a.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-officer-on-roll-supro-consulting-kanpur-lucknow-meerut-noida-greater-noida-saharanpur-2-to-7-yrs-jobid-1FbGjMq4i__PLUS__5zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1932,46 +1816,42 @@
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator,Network Engineer</t>
+      Branch Sales Manager</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more Details contact on @9510772601.Responsibilities:-   Lead will be provided Need to seat in bank handle walking customer  Generate business through the Lead Close the l...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kalol,  Kandla,  Mehsana,  Morbi,  Nadiad</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-kalol-kandla-mehsana-morbi-nadiad-2-to-7-yrs-jobid-CEwLROLbM7NzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Kolkata,  Mumbai</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/branch-sales-manager-supro-consulting-delhi-delhi-ncr-gurgaon-kolkata-mumbai-2-to-7-yrs-jobid-TFP__SLASH__Of5LzfxzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -1982,46 +1862,42 @@
       <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator,Network Engineer</t>
+      "Bancassurance Manager"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>Full time job. Work from tie up partnersResponsible to manage relations with Banca partners, especially with a bank employee. To close the leads provided by the Relationship M...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Godhra,  Gondal,  Jamnagar,  Jetpur,  Junagarh</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-godhra-gondal-jamnagar-jetpur-junagarh-2-to-7-yrs-jobid-nj2nR__PLUS__yxSuNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Jaipur,  Jodhpur,  Udaipur</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.50 Lacs p.a.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/bancassurance-manager-supro-consulting-jaipur-jodhpur-udaipur-2-to-7-yrs-jobid-CI4kEEnaxlBzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2032,46 +1908,42 @@
       <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Desktop Support Engineer</t>
+      Area Sales Manager_Urgent Hiring</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>Send CV &amp; Call on 7984459585 (Devangi Patel)- Must be ready to earn incentives- Cold calling with a team member- Converting leads provided by company and assign branch- Ac...</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dahod,  Deesa,  Gandhidham,  Gandhinagar,  Gir</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-dahod-deesa-gandhidham-gandhinagar-gir-2-to-7-yrs-jobid-7uerZSFUjsdzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ahmednagar,  Aurangabad,  Kolhapur,  Latur,  Mumbai</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.25 - 4.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-sales-manager-urgent-hiring-supro-consulting-ahmednagar-aurangabad-kolhapur-latur-mumbai-2-to-7-yrs-jobid-v2kTqxPwC3NzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2082,46 +1954,42 @@
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Desktop Support Engineer</t>
+      Area Business manager</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more details contact @9510772601.Responsibility :Building a strong relationship with the sales team of channel partners.Meeting prospective customers with channel sales te...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ankleshwar,  Bharuch,  Bhavnagar,  Bhuj,  Botad</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-ankleshwar-bharuch-bhavnagar-bhuj-botad-2-to-7-yrs-jobid-ckQJT2ub7N1zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Bongaigaon,  Dibrugarh,  Guwahati,  Sibsagar,  Silchar</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 1.00 - 3.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-business-manager-supro-consulting-bongaigaon-dibrugarh-guwahati-sibsagar-silchar-2-to-7-yrs-jobid-QClYFume6o9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2132,46 +2000,42 @@
       <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator</t>
+      Relationship Manager - On Roll</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more information call on 95373 31157 ( Krishna )Build and improve relationships with customers, key suppliers and partners.Review company practices to ensure clients get m...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Panjim/Panaji,  Vasco Da Gama,  Ahmedabad,  Amreli,  Anand</t>
+          <t>2 - 6 yrs</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-panjim-panaji-vasco-da-gama-ahmedabad-amreli-anand-2-to-7-yrs-jobid-LDqKVrngD9dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Mumbai,  Pune,  Aurangabad,  Jalgaon,  Kolhapur</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 1.25 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/relationship-manager-on-roll-supro-consulting-mumbai-pune-aurangabad-jalgaon-kolhapur-2-to-6-yrs-jobid-ddgPidnPT6tzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2182,46 +2046,42 @@
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Network Engineer</t>
+      Business Development Manager</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For more details contact @9510772601.Responsibility :Building a strong relationship with the sales team of channel partners.Meeting prospective customers with channel sales te...</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Muzaffarpur,  Patna,  Bhilai-Durg,  Bilaspur,  Raipur</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-muzaffarpur-patna-bhilai-durg-bilaspur-raipur-2-to-7-yrs-jobid-SEupZm__SLASH__SFtVzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi,  Delhi/NCR,  Gurgaon,  Kolkata,  Mumbai</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 3.00 - 5.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/business-development-manager-supro-consulting-delhi-delhi-ncr-gurgaon-kolkata-mumbai-2-to-7-yrs-jobid-6DpbZvkit0pzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2232,46 +2092,42 @@
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Network Engineer</t>
+      Area Sales Manager</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>For More Information Call On : 9106082810Recruit adviserGenerate business through the advisersLead the team of advisers Motivate them to achieve targetsProvide training and gu...</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sibsagar,  Silchar,  Tezpur,  Tinsukia,  Bhagalpur</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-sibsagar-silchar-tezpur-tinsukia-bhagalpur-2-to-7-yrs-jobid-nv3__SLASH__CdAUl4VzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ahmedabad,  Delhi/NCR,  Mumbai,  Kolhapur,  Jaipur</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.00 - 10.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-sales-manager-supro-consaltancy-ahmedabad-delhi-ncr-mumbai-kolhapur-jaipur-2-to-7-yrs-jobid-HBFyzWBaQqBzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2282,46 +2138,42 @@
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,Desktop Support Engineer</t>
+      Area Sales Manager_Immediate Opening</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>Send CV &amp; Call on 95373 31157 (Krishna)Call up the leads provided by company.Maintain customer relationship and customer servicing.On the desk &amp; field job, travel to a...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bongaigaon,  Dhubri,  Dibrugarh,  Guwahati,  Jorhat</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Supro Consulting</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-bongaigaon-dhubri-dibrugarh-guwahati-jorhat-2-to-7-yrs-jobid-qKP4SGjsP__PLUS__dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi/NCR,  Gurgaon,  Noida/Greater Noida,  Ghaziabad</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Rs 2.25 - 3.50 Lacs p.a.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/area-sales-manager-immediate-opening-supro-consulting-delhi-ncr-gurgaon-noida-greater-noida-ghaziabad-2-to-7-yrs-jobid-Akh1Sjjc9t9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2332,46 +2184,42 @@
       <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Maintenance Worker,System Administrator</t>
+      DIGITAL MARKETING EXECUTIVE (SEARCH ENGINE &amp; SOCIAL MEDIA)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2 - 7 yrs</t>
+          <t>GREETINGS OF THE DAYfrom the association/side/end of RGRA HUMAN RESOURCE SOLUTIONS !!!!Dear Employee(s)/Candidate(s)/Job Seeker(s),                                            ...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tirupati,  Vijayawada,  Visakhapatnam,  Warangal,  Itanagar</t>
+          <t>1 - 6 yrs</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>RGRA HUMAN RESOURCE SOLUTIONS</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-tirupati-vijayawada-visakhapatnam-warangal-itanagar-2-to-7-yrs-jobid-iltuBo9zJ__PLUS__FzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ... </t>
+          <t>Not Mentioned</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Vicky
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/digital-marketing-executive-search-engine-social-media-rgra-human-resource-solutions-delhi-1-to-6-yrs-jobid-QVF53aw__PLUS__v59zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2382,46 +2230,42 @@
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      International Travel. sales voice process- travel  associate</t>
+      Maintenance Worker</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/international-travel-sales-voice-process-travel-associate-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-HYc154ic5tFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Fatehabad,  Gurgaon,  Hissar,  Jhajjar,  Jind</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-vicky-fatehabad-gurgaon-hissar-jhajjar-jind-2-to-7-yrs-jobid-7y5Zv0cprGRzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2432,46 +2276,42 @@
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Hiring for Travel  Profiles Customer Service / Travel Sales</t>
+      Maintenance Worker,Network Engineer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/hiring-for-travel-profiles-customer-service-travel-sales-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-zt4HJEkqz__SLASH__lzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Wankaner,  Ambala,  Bhiwani,  Chandigarh,  Faridabad</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-wankaner-ambala-bhiwani-chandigarh-faridabad-2-to-7-yrs-jobid-9ZvDDRylaJJzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2482,46 +2322,42 @@
       <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Hire for Travel Sales Consultant Google Campaign/PPC Calls</t>
+      Maintenance Worker,System Administrator</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/hire-for-travel-sales-consultant-google-campaign-ppc-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-PH__SLASH__F1__PLUS__TaOUZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Surat,  Surendranagar,  Vadodara,  Valsad -Vapi,  Veraval</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-surat-surendranagar-vadodara-valsad-vapi-veraval-2-to-7-yrs-jobid-Oq5ruZz__SLASH__uhZzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2532,46 +2368,42 @@
       <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      We are looking for. exp. candidates in travel sales profile.</t>
+      Maintenance Worker,System Administrator,Network Engineer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/we-are-looking-for-exp-candidates-in-travel-sales-profile-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-Z__PLUS__ZS8yMXUZxzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Navsari,  Palanpur,  Patan,  Porbandar,  Rajkot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-navsari-palanpur-patan-porbandar-rajkot-2-to-7-yrs-jobid-Zg85poENt91zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2582,46 +2414,42 @@
       <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      International Travel. sales voice process</t>
+      Maintenance Worker,System Administrator,Network Engineer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/international-travel-sales-voice-process-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-fEa3XqDo5I9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Kalol,  Kandla,  Mehsana,  Morbi,  Nadiad</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-kalol-kandla-mehsana-morbi-nadiad-2-to-7-yrs-jobid-CEwLROLbM7NzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2632,46 +2460,42 @@
       <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Experience Travel Sales Consultant</t>
+      Maintenance Worker,System Administrator,Network Engineer</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/experience-travel-sales-consultant-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-nIa__SLASH__sFLWiTNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Godhra,  Gondal,  Jamnagar,  Jetpur,  Junagarh</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-network-engineer-vicky-godhra-gondal-jamnagar-jetpur-junagarh-2-to-7-yrs-jobid-nj2nR__PLUS__yxSuNzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2682,46 +2506,42 @@
       <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Travel Sales  Google Campaign Calls Meta Calls PPC Calls</t>
+      Maintenance Worker,Desktop Support Engineer</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/travel-sales-google-campaign-calls-meta-calls-ppc-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-DFEUW6h5IERzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Dahod,  Deesa,  Gandhidham,  Gandhinagar,  Gir</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales ConsultantInternational Voice ProcessMinimum 1 years experience in Travel processHandling inbound calls &amp; converting them into a sales.Selling flights, hotel ... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-dahod-deesa-gandhidham-gandhinagar-gir-2-to-7-yrs-jobid-7uerZSFUjsdzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2732,46 +2552,42 @@
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Tell-caller</t>
+      Maintenance Worker,Desktop Support Engineer</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1 - 2 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bhopal</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/tell-caller-siddharth-institute-bhopal-1-to-2-yrs-jobid-cvFwyEhgCkFzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Ankleshwar,  Bharuch,  Bhavnagar,  Bhuj,  Botad</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-TelemarketingSuggested KeySkills:Outbound calls, Customer Service, Convincing skills, MS Office , InternetDescription:Candidate will be responsible for handling outbound calls... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    Siddharth institute
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Not Mentioned</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-ankleshwar-bharuch-bhavnagar-bhuj-botad-2-to-7-yrs-jobid-ckQJT2ub7N1zpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2782,46 +2598,42 @@
       <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      US Travel Sales Consultant Google Campaign Meta Search Calls</t>
+      Maintenance Worker,System Administrator</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/us-travel-sales-consultant-google-campaign-meta-search-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-qRbRnzoZ96JzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Panjim/Panaji,  Vasco Da Gama,  Ahmedabad,  Amreli,  Anand</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-system-administrator-vicky-panjim-panaji-vasco-da-gama-ahmedabad-amreli-anand-2-to-7-yrs-jobid-LDqKVrngD9dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2832,46 +2644,42 @@
       <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Immediate joinee required for US Travel sales</t>
+      Maintenance Worker,Network Engineer</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/immediate-joinee-required-for-us-travel-sales-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-c2TzSM68Jh5zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Muzaffarpur,  Patna,  Bhilai-Durg,  Bilaspur,  Raipur</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-muzaffarpur-patna-bhilai-durg-bilaspur-raipur-2-to-7-yrs-jobid-SEupZm__SLASH__SFtVzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2882,46 +2690,42 @@
       <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Bulk Hiring For US,UK travel Sales Consultsnt</t>
+      Maintenance Worker,Network Engineer</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/bulk-hiring-for-us-uk-travel-sales-consultsnt-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-j4ffYI4LOR9zpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Sibsagar,  Silchar,  Tezpur,  Tinsukia,  Bhagalpur</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-network-engineer-vicky-sibsagar-silchar-tezpur-tinsukia-bhagalpur-2-to-7-yrs-jobid-nv3__SLASH__CdAUl4VzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
@@ -2932,46 +2736,42 @@
       <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve">
-      Immediate joinee required for US Travel sales - Meta,  calls</t>
+      Maintenance Worker,Desktop Support Engineer</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1 - 6 yrs</t>
+          <t>We are hiring a maintenance worker to join our maintenance team. You will inspect different equipment and perform any basic repairs or preventative maintenance when required. ...</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Delhi,  Delhi/NCR,  Gurgaon,  Noida/Greater Noida</t>
+          <t>2 - 7 yrs</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Posted today</t>
+          <t>Vicky</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.timesjobs.com/job-detail/immediate-joinee-required-for-us-travel-sales-meta-calls-call-me-9818135534-delhi-delhi-ncr-gurgaon-noida-greater-noida-1-to-6-yrs-jobid-iQcrOzxJdztzpSvf__PLUS__uAgZw==&amp;source=srp</t>
+          <t>Bongaigaon,  Dhubri,  Dibrugarh,  Guwahati,  Jorhat</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Travel Sales Associate Required/US Sales AgentsHandling inbound calls , converting them into a booking / salesMin 1years of exp in US/UK travel sales is compulsoryWith a minim... </t>
+          <t>Rs 5.00 - 20.00 Lacs p.a.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-    sharda consultancy Services
-     (More Jobs)  
-    </t>
+          <t>Posted today</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Rs 3.00 - 6.00 Lacs p.a.</t>
+          <t>https://www.timesjobs.com/job-detail/maintenance-worker-desktop-support-engineer-vicky-bongaigaon-dhubri-dibrugarh-guwahati-jorhat-2-to-7-yrs-jobid-qKP4SGjsP__PLUS__dzpSvf__PLUS__uAgZw==&amp;source=srp</t>
         </is>
       </c>
     </row>
